--- a/Шаблон таблицы кейс тестов — дз.xlsx
+++ b/Шаблон таблицы кейс тестов — дз.xlsx
@@ -97,6 +97,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+      </rPr>
       <t xml:space="preserve">Войти на сайт любым способом;
 Нажать на иконку профиля (имя и фото) в правом верхнем углу;
 В выпадающем меню нажать </t>
@@ -106,6 +112,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="204"/>
       </rPr>
       <t>"</t>
@@ -124,6 +131,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="204"/>
       </rPr>
       <t>"</t>
@@ -221,10 +229,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,21 +323,80 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,99 +410,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,15 +433,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,13 +467,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,79 +527,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,103 +695,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,17 +763,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,23 +790,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,6 +822,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,169 +855,158 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1096,61 +1105,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
-    <cellStyle name="Bad" xfId="22" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
-    <cellStyle name="Total" xfId="24" builtinId="25"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="Currency" xfId="26" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
-    <cellStyle name="Note" xfId="28" builtinId="10"/>
-    <cellStyle name="Input" xfId="29" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
-    <cellStyle name="Good" xfId="32" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="60% - Akzent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Akzent6" xfId="2" builtinId="51"/>
+    <cellStyle name="Ausgabe" xfId="3" builtinId="21"/>
+    <cellStyle name="60% - Akzent5" xfId="4" builtinId="48"/>
+    <cellStyle name="60% - Akzent4" xfId="5" builtinId="44"/>
+    <cellStyle name="Akzent5" xfId="6" builtinId="45"/>
+    <cellStyle name="40% - Akzent4" xfId="7" builtinId="43"/>
+    <cellStyle name="Akzent4" xfId="8" builtinId="41"/>
+    <cellStyle name="40% - Akzent3" xfId="9" builtinId="39"/>
+    <cellStyle name="20% - Akzent3" xfId="10" builtinId="38"/>
+    <cellStyle name="60% - Akzent2" xfId="11" builtinId="36"/>
+    <cellStyle name="Akzent3" xfId="12" builtinId="37"/>
+    <cellStyle name="Neutral" xfId="13" builtinId="28"/>
+    <cellStyle name="40% - Akzent2" xfId="14" builtinId="35"/>
+    <cellStyle name="20% - Akzent2" xfId="15" builtinId="34"/>
+    <cellStyle name="60% - Akzent1" xfId="16" builtinId="32"/>
+    <cellStyle name="Akzent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Akzent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Gut" xfId="19" builtinId="26"/>
+    <cellStyle name="Akzent6" xfId="20" builtinId="49"/>
+    <cellStyle name="40% - Akzent5" xfId="21" builtinId="47"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="22" builtinId="24"/>
+    <cellStyle name="Zelle überprüfen" xfId="23" builtinId="23"/>
+    <cellStyle name="60% - Akzent3" xfId="24" builtinId="40"/>
+    <cellStyle name="Eingabe" xfId="25" builtinId="20"/>
+    <cellStyle name="Komma[0]" xfId="26" builtinId="6"/>
+    <cellStyle name="Gesamt" xfId="27" builtinId="25"/>
+    <cellStyle name="20% - Akzent6" xfId="28" builtinId="50"/>
+    <cellStyle name="Überschrift 3" xfId="29" builtinId="18"/>
+    <cellStyle name="20% - Akzent4" xfId="30" builtinId="42"/>
+    <cellStyle name="Überschrift 1" xfId="31" builtinId="16"/>
+    <cellStyle name="Schlecht" xfId="32" builtinId="27"/>
+    <cellStyle name="20% - Akzent5" xfId="33" builtinId="46"/>
     <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="Title" xfId="38" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
-    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
-    <cellStyle name="Link" xfId="43" builtinId="8"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="35" builtinId="5"/>
+    <cellStyle name="Akzent1" xfId="36" builtinId="29"/>
+    <cellStyle name="Titel" xfId="37" builtinId="15"/>
+    <cellStyle name="Warnmeldung" xfId="38" builtinId="11"/>
+    <cellStyle name="Hinweis" xfId="39" builtinId="10"/>
+    <cellStyle name="Überschrift 4" xfId="40" builtinId="19"/>
+    <cellStyle name="Komma" xfId="41" builtinId="3"/>
+    <cellStyle name="Überschrift 2" xfId="42" builtinId="17"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="43" builtinId="9"/>
+    <cellStyle name="Währung" xfId="44" builtinId="4"/>
+    <cellStyle name="Berechnung" xfId="45" builtinId="22"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8"/>
+    <cellStyle name="20% - Akzent1" xfId="47" builtinId="30"/>
+    <cellStyle name="Währung[0]" xfId="48" builtinId="7"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1499,27 +1509,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2;C4">
       <formula1>$B$2:$B$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3 E6 B2:B4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3;E6;B2:B4">
       <formula1>Result</formula1>
     </dataValidation>
   </dataValidations>
@@ -1534,12 +1544,12 @@
   <sheetPr/>
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="14"/>
@@ -1583,7 +1593,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="20">
         <f>COUNTIF(L$8:L$16,"failed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="19"/>
       <c r="N1" s="20">
@@ -1628,7 +1638,7 @@
       <c r="K2" s="19"/>
       <c r="L2" s="21">
         <f>COUNTIF(L$8:L$16,"passed")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" s="19"/>
       <c r="N2" s="21">
@@ -1853,7 +1863,9 @@
       <c r="I8" s="30"/>
       <c r="J8" s="16"/>
       <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
+      <c r="L8" s="32" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="19"/>
       <c r="N8" s="32"/>
       <c r="O8" s="19"/>
@@ -1889,7 +1901,9 @@
       <c r="I9" s="33"/>
       <c r="J9" s="16"/>
       <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
+      <c r="L9" s="32" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="19"/>
       <c r="N9" s="32"/>
       <c r="O9" s="19"/>
@@ -1925,7 +1939,9 @@
       <c r="I10" s="30"/>
       <c r="J10" s="16"/>
       <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
+      <c r="L10" s="34" t="s">
+        <v>1</v>
+      </c>
       <c r="M10" s="19"/>
       <c r="N10" s="32"/>
       <c r="O10" s="19"/>
@@ -2183,8 +2199,8 @@
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
@@ -2216,8 +2232,8 @@
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
@@ -2597,7 +2613,7 @@
     <mergeCell ref="T6:T7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L16 N16 P16 R16 T16 L8:L10 L11:L13 L14:L15 N8:N10 N11:N13 N14:N15 P8:P10 P11:P13 P14:P15 R8:R10 R11:R13 R14:R15 T8:T10 T11:T13 T14:T15">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L16;N16;P16;R16;T16;L8:L10;L11:L13;L14:L15;N8:N10;N11:N13;N14:N15;P8:P10;P11:P13;P14:P15;R8:R10;R11:R13;R14:R15;T8:T10;T11:T13;T14:T15">
       <formula1>Result</formula1>
     </dataValidation>
   </dataValidations>
